--- a/Logistics/FROGER_Budget.xlsx
+++ b/Logistics/FROGER_Budget.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Hampton Inn</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Publication cost</t>
+  </si>
+  <si>
+    <t>Conference Room</t>
+  </si>
+  <si>
+    <t>Meeting Room</t>
   </si>
 </sst>
 </file>
@@ -408,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,14 +497,14 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D4">
         <v>8</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E6" si="0">C4*D4</f>
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -512,108 +518,123 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>375</v>
+        <v>900</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>375</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f>C7*D7</f>
-        <v>2250</v>
+        <v>375</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>375</v>
+      </c>
+      <c r="D8">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <f>C8*D8</f>
+        <v>2250</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <f>0.55*500</f>
         <v>275</v>
       </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <f>C8*D8</f>
-        <v>550</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>1500</v>
-      </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
         <f>C9*D9</f>
-        <v>1500</v>
+        <v>275</v>
       </c>
       <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f>C10*D10</f>
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="E11">
-        <f>SUM(E2:E9)</f>
-        <v>9995</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <f>SUM(E2:E10)</f>
+        <v>9920</v>
       </c>
     </row>
   </sheetData>

--- a/Logistics/FROGER_Budget.xlsx
+++ b/Logistics/FROGER_Budget.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="11200" yWindow="460" windowWidth="28800" windowHeight="13560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="85">
   <si>
     <t>Hampton Inn</t>
   </si>
@@ -74,9 +75,6 @@
     <t>540 from baton rouge</t>
   </si>
   <si>
-    <t>425 from Miami</t>
-  </si>
-  <si>
     <t>Lodging</t>
   </si>
   <si>
@@ -99,16 +97,225 @@
   </si>
   <si>
     <t>Meeting Room</t>
+  </si>
+  <si>
+    <t>arrival</t>
+  </si>
+  <si>
+    <t>Chema</t>
+  </si>
+  <si>
+    <t>departure</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>Hollie Putnam - URI</t>
+  </si>
+  <si>
+    <t>Steven Roberts - UW</t>
+  </si>
+  <si>
+    <t>Jose Eirin-Lopez - FIU</t>
+  </si>
+  <si>
+    <t>Kevin Johnson - LSU</t>
+  </si>
+  <si>
+    <t>Sam Gurr - URI</t>
+  </si>
+  <si>
+    <t>Emma Strand - URI</t>
+  </si>
+  <si>
+    <t>Jon Puritz - URI</t>
+  </si>
+  <si>
+    <t>Katie Lotterhos - NEU</t>
+  </si>
+  <si>
+    <t>Alan Downey Wall - NEU</t>
+  </si>
+  <si>
+    <t>Yaamini Venkataraman - UW</t>
+  </si>
+  <si>
+    <t>Mackenzie Gavery - NOAA</t>
+  </si>
+  <si>
+    <t>Shelly Trigg - UW</t>
+  </si>
+  <si>
+    <t>Invited</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>Yaamini</t>
+  </si>
+  <si>
+    <t>Shelly</t>
+  </si>
+  <si>
+    <t>Katie</t>
+  </si>
+  <si>
+    <t>WP Single</t>
+  </si>
+  <si>
+    <t>WP Shared</t>
+  </si>
+  <si>
+    <t>Bodie ?</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Bodie</t>
+  </si>
+  <si>
+    <t>yaamini</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>shared</t>
+  </si>
+  <si>
+    <t>erin</t>
+  </si>
+  <si>
+    <t>tejashree</t>
+  </si>
+  <si>
+    <t>x gou</t>
+  </si>
+  <si>
+    <t>rachel</t>
+  </si>
+  <si>
+    <t>rebecca</t>
+  </si>
+  <si>
+    <t>dina</t>
+  </si>
+  <si>
+    <t>mary</t>
+  </si>
+  <si>
+    <t>kate</t>
+  </si>
+  <si>
+    <t>marta</t>
+  </si>
+  <si>
+    <t>Hampton 1</t>
+  </si>
+  <si>
+    <t>Hampton 2</t>
+  </si>
+  <si>
+    <t>Hampton 3</t>
+  </si>
+  <si>
+    <t>Hampton 4</t>
+  </si>
+  <si>
+    <t>Hampton 5</t>
+  </si>
+  <si>
+    <t>Hampton 6</t>
+  </si>
+  <si>
+    <t>Hampton 7</t>
+  </si>
+  <si>
+    <t>5/20/19 - 12:03pm</t>
+  </si>
+  <si>
+    <t>5/23/19 - 12:45pm</t>
+  </si>
+  <si>
+    <t>Amtrak</t>
+  </si>
+  <si>
+    <t>5/20 - 4:10pm KIN Amtrak</t>
+  </si>
+  <si>
+    <t>5/23 3:36 p.m KIN Amtrak</t>
+  </si>
+  <si>
+    <t>Bodie Weedop</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Ride from Family</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>midnight to PVD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,14 +338,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,23 +641,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:F7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" customWidth="1"/>
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -447,7 +676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43605</v>
       </c>
@@ -458,17 +687,17 @@
         <v>140</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <f>C2*D2</f>
-        <v>1120</v>
+        <v>840</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43605</v>
       </c>
@@ -476,20 +705,20 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <f>C3*D3</f>
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43606</v>
       </c>
@@ -507,10 +736,10 @@
         <v>2400</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43607</v>
       </c>
@@ -528,12 +757,12 @@
         <v>2400</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>450</v>
@@ -546,10 +775,10 @@
         <v>900</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -567,10 +796,10 @@
         <v>375</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -593,11 +822,8 @@
       <c r="H8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -613,10 +839,10 @@
         <v>275</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -628,16 +854,583 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12">
         <f>SUM(E2:E10)</f>
-        <v>9920</v>
+        <v>9770</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>43606</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15">
+        <v>240</v>
+      </c>
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>E2</f>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <v>300</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <f>E3</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17">
+        <f>C31</f>
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <v>420</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18">
+        <f>D42</f>
+        <v>2292.29</v>
+      </c>
+      <c r="G18">
+        <f>10000-SUM(F15:F17)</f>
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>180</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <f>10000-SUM(F15:F18)</f>
+        <v>742.70999999999913</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C26">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f>450/2</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f>10*155</f>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f>4*180</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f>SUM(C15:C29)</f>
+        <v>5795</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37">
+        <v>786</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38">
+        <v>406.29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <f>SUM(D34:D40)</f>
+        <v>2292.29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+    <col min="8" max="8" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>